--- a/NaiveBayesClassifier/stop.xlsx
+++ b/NaiveBayesClassifier/stop.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>count</t>
   </si>
@@ -38,6 +38,9 @@
     <t>that</t>
   </si>
   <si>
+    <t>he's</t>
+  </si>
+  <si>
     <t>than</t>
   </si>
   <si>
@@ -71,9 +74,15 @@
     <t>an</t>
   </si>
   <si>
+    <t>that's</t>
+  </si>
+  <si>
     <t>it</t>
   </si>
   <si>
+    <t>doesn't</t>
+  </si>
+  <si>
     <t>some</t>
   </si>
   <si>
@@ -107,27 +116,30 @@
     <t>at</t>
   </si>
   <si>
+    <t>it's</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
     <t>its</t>
   </si>
   <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
     <t>why</t>
   </si>
   <si>
@@ -185,6 +197,9 @@
     <t>his</t>
   </si>
   <si>
+    <t>there's</t>
+  </si>
+  <si>
     <t>while</t>
   </si>
   <si>
@@ -218,15 +233,24 @@
     <t>itself</t>
   </si>
   <si>
+    <t>don't</t>
+  </si>
+  <si>
     <t>their</t>
   </si>
   <si>
+    <t>you'd</t>
+  </si>
+  <si>
     <t>such</t>
   </si>
   <si>
     <t>here</t>
   </si>
   <si>
+    <t>you're</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
@@ -251,6 +275,9 @@
     <t>were</t>
   </si>
   <si>
+    <t>can't</t>
+  </si>
+  <si>
     <t>against</t>
   </si>
   <si>
@@ -296,45 +323,87 @@
     <t>him</t>
   </si>
   <si>
+    <t>haven't</t>
+  </si>
+  <si>
     <t>same</t>
   </si>
   <si>
+    <t>here's</t>
+  </si>
+  <si>
+    <t>you'll</t>
+  </si>
+  <si>
+    <t>isn't</t>
+  </si>
+  <si>
+    <t>i'm</t>
+  </si>
+  <si>
     <t>himself</t>
   </si>
   <si>
     <t>she</t>
   </si>
   <si>
+    <t>won't</t>
+  </si>
+  <si>
     <t>before</t>
   </si>
   <si>
+    <t>couldn't</t>
+  </si>
+  <si>
     <t>only</t>
   </si>
   <si>
+    <t>he'd</t>
+  </si>
+  <si>
     <t>where</t>
   </si>
   <si>
+    <t>wouldn't</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
+    <t>what's</t>
+  </si>
+  <si>
     <t>once</t>
   </si>
   <si>
     <t>me</t>
   </si>
   <si>
+    <t>didn't</t>
+  </si>
+  <si>
     <t>herself</t>
   </si>
   <si>
+    <t>i'll</t>
+  </si>
+  <si>
     <t>again</t>
   </si>
   <si>
+    <t>weren't</t>
+  </si>
+  <si>
     <t>until</t>
   </si>
   <si>
     <t>having</t>
   </si>
   <si>
+    <t>they're</t>
+  </si>
+  <si>
     <t>themselves</t>
   </si>
   <si>
@@ -350,31 +419,94 @@
     <t>below</t>
   </si>
   <si>
+    <t>he'll</t>
+  </si>
+  <si>
+    <t>they'll</t>
+  </si>
+  <si>
     <t>during</t>
   </si>
   <si>
     <t>further</t>
   </si>
   <si>
+    <t>who's</t>
+  </si>
+  <si>
+    <t>aren't</t>
+  </si>
+  <si>
     <t>did</t>
   </si>
   <si>
+    <t>i've</t>
+  </si>
+  <si>
     <t>theirs</t>
   </si>
   <si>
+    <t>we'll</t>
+  </si>
+  <si>
+    <t>she'll</t>
+  </si>
+  <si>
+    <t>you've</t>
+  </si>
+  <si>
+    <t>shouldn't</t>
+  </si>
+  <si>
+    <t>we've</t>
+  </si>
+  <si>
+    <t>she's</t>
+  </si>
+  <si>
+    <t>hasn't</t>
+  </si>
+  <si>
     <t>myself</t>
   </si>
   <si>
     <t>yourselves</t>
   </si>
   <si>
+    <t>we're</t>
+  </si>
+  <si>
+    <t>i'd</t>
+  </si>
+  <si>
     <t>am</t>
   </si>
   <si>
+    <t>they've</t>
+  </si>
+  <si>
+    <t>wasn't</t>
+  </si>
+  <si>
+    <t>hadn't</t>
+  </si>
+  <si>
+    <t>they'd</t>
+  </si>
+  <si>
+    <t>we'd</t>
+  </si>
+  <si>
     <t>yours</t>
   </si>
   <si>
     <t>ought</t>
+  </si>
+  <si>
+    <t>let's</t>
+  </si>
+  <si>
+    <t>where's</t>
   </si>
 </sst>
 </file>
@@ -723,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9477</v>
+        <v>9445</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -749,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3163</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -773,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5818</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -781,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -789,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>625</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -797,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>495</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -805,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5705</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -813,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>525</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -821,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -829,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1540</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -837,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>506</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -845,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>833</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -853,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>585</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -861,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1674</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -869,7 +1001,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1237</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -877,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2132</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -885,7 +1017,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>314</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -893,7 +1025,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>396</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -901,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>597</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -909,7 +1041,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>175</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -917,7 +1049,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>418</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -925,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>369</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -933,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>659</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -941,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>681</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -949,7 +1081,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1469</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -957,7 +1089,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>2458</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -965,7 +1097,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>656</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -973,7 +1105,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>2312</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -981,7 +1113,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>220</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -989,7 +1121,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>158</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -997,7 +1129,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>115</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1005,7 +1137,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1371</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1013,7 +1145,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>390</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1021,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>687</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1029,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>73</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1037,7 +1169,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>196</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1045,7 +1177,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>190</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1053,7 +1185,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>225</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1061,7 +1193,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>376</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1069,7 +1201,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>127</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1077,7 +1209,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1085,7 +1217,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>91</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1093,7 +1225,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>754</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1101,7 +1233,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>755</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1109,7 +1241,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1360</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1117,7 +1249,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1125,7 +1257,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>638</v>
+        <v>754</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1133,7 +1265,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>129</v>
+        <v>755</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1141,7 +1273,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>28</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1149,7 +1281,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1157,7 +1289,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>372</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1165,7 +1297,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1173,7 +1305,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1181,7 +1313,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1189,7 +1321,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>207</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1197,7 +1329,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>213</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1205,7 +1337,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>202</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1213,7 +1345,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>101</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1221,7 +1353,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1229,7 +1361,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>674</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1237,7 +1369,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1245,7 +1377,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>838</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1253,7 +1385,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1261,7 +1393,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>108</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1269,7 +1401,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>277</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1277,7 +1409,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>134</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1285,7 +1417,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>132</v>
+        <v>837</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1293,7 +1425,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1301,7 +1433,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>255</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1309,7 +1441,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>244</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1317,7 +1449,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>152</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1325,7 +1457,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>431</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1333,7 +1465,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1341,7 +1473,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>243</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1349,7 +1481,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1357,7 +1489,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1365,7 +1497,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>169</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1373,7 +1505,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1381,7 +1513,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1389,7 +1521,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>352</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1397,7 +1529,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>194</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1405,7 +1537,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>142</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1413,7 +1545,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1421,7 +1553,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1429,7 +1561,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1437,7 +1569,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>231</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1445,7 +1577,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1461,7 +1593,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>248</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1469,7 +1601,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>67</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1477,7 +1609,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1485,7 +1617,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1493,7 +1625,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1501,7 +1633,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>98</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1509,7 +1641,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1517,7 +1649,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1525,7 +1657,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>188</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1533,7 +1665,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>91</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1541,7 +1673,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1549,7 +1681,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1557,7 +1689,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1565,7 +1697,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1573,7 +1705,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1581,7 +1713,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>29</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1589,7 +1721,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1597,7 +1729,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1605,7 +1737,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1613,7 +1745,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1621,7 +1753,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1629,7 +1761,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1637,7 +1769,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>38</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1645,7 +1777,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1653,7 +1785,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1661,7 +1793,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1669,7 +1801,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>9</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1677,7 +1809,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1685,7 +1817,359 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
